--- a/released_outputs/table1_cox.xlsx
+++ b/released_outputs/table1_cox.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="248">
   <si>
     <t>Table 1: Demographic and Clinical Characteristics</t>
   </si>
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Survival time</t>
+    <t>Follow-up time</t>
   </si>
   <si>
     <t>Mean (SD)</t>
@@ -39,6 +39,9 @@
     <t>Median (IQR)</t>
   </si>
   <si>
+    <t>Time to death</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -240,6 +243,12 @@
     <t>43.0 (31.0-58.0)</t>
   </si>
   <si>
+    <t>16.2 (10.9)</t>
+  </si>
+  <si>
+    <t>13.0 (9.0-21.0)</t>
+  </si>
+  <si>
     <t>82,014 (53.2)</t>
   </si>
   <si>
@@ -411,6 +420,12 @@
     <t>53.0 (39.0-66.0)</t>
   </si>
   <si>
+    <t>16.4 (12.4)</t>
+  </si>
+  <si>
+    <t>13.0 (8.0-21.0)</t>
+  </si>
+  <si>
     <t>46,272 (53.9)</t>
   </si>
   <si>
@@ -580,6 +595,12 @@
   </si>
   <si>
     <t>33.0 (28.0-43.0)</t>
+  </si>
+  <si>
+    <t>15.9 (8.1)</t>
+  </si>
+  <si>
+    <t>15.0 (10.0-21.0)</t>
   </si>
   <si>
     <t>35,742 (52.4)</t>
@@ -781,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E75"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -804,13 +825,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -834,13 +855,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -849,13 +870,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -879,13 +900,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -894,13 +915,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -921,37 +942,37 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -966,31 +987,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1011,622 +1032,622 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
         <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
         <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -1641,228 +1662,273 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
         <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
         <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
         <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
         <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
         <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
         <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
         <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/released_outputs/table1_cox.xlsx
+++ b/released_outputs/table1_cox.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="277">
   <si>
     <t>Table 1: Demographic and Clinical Characteristics</t>
   </si>
@@ -30,16 +30,40 @@
     <t>1</t>
   </si>
   <si>
+    <t>Time to death</t>
+  </si>
+  <si>
+    <t>Mean (SD)</t>
+  </si>
+  <si>
+    <t>Median (IQR)</t>
+  </si>
+  <si>
     <t>Follow-up time</t>
   </si>
   <si>
-    <t>Mean (SD)</t>
-  </si>
-  <si>
-    <t>Median (IQR)</t>
-  </si>
-  <si>
-    <t>Time to death</t>
+    <t>Epidemiological week of study</t>
+  </si>
+  <si>
+    <t>16Nov-22Nov</t>
+  </si>
+  <si>
+    <t>23Nov-29Nov</t>
+  </si>
+  <si>
+    <t>30Nov-06Dec</t>
+  </si>
+  <si>
+    <t>07Dec-13Dec</t>
+  </si>
+  <si>
+    <t>14Dec-20Dec</t>
+  </si>
+  <si>
+    <t>21Dec-27Dec</t>
+  </si>
+  <si>
+    <t>28Dec-04Jan</t>
   </si>
   <si>
     <t>Male</t>
@@ -237,16 +261,37 @@
     <t>669 (0.4)</t>
   </si>
   <si>
+    <t>16.2 (10.9)</t>
+  </si>
+  <si>
+    <t>13.0 (9.0-21.0)</t>
+  </si>
+  <si>
     <t>44.9 (15.8)</t>
   </si>
   <si>
     <t>43.0 (31.0-58.0)</t>
   </si>
   <si>
-    <t>16.2 (10.9)</t>
-  </si>
-  <si>
-    <t>13.0 (9.0-21.0)</t>
+    <t>21,981 (14.3)</t>
+  </si>
+  <si>
+    <t>14,763 (9.6)</t>
+  </si>
+  <si>
+    <t>14,300 (9.3)</t>
+  </si>
+  <si>
+    <t>18,177 (11.8)</t>
+  </si>
+  <si>
+    <t>20,012 (13.0)</t>
+  </si>
+  <si>
+    <t>24,493 (15.9)</t>
+  </si>
+  <si>
+    <t>40,391 (26.2)</t>
   </si>
   <si>
     <t>82,014 (53.2)</t>
@@ -414,16 +459,37 @@
     <t>402 (0.5)</t>
   </si>
   <si>
+    <t>16.4 (12.4)</t>
+  </si>
+  <si>
+    <t>13.0 (8.0-21.0)</t>
+  </si>
+  <si>
     <t>51.8 (15.8)</t>
   </si>
   <si>
     <t>53.0 (39.0-66.0)</t>
   </si>
   <si>
-    <t>16.4 (12.4)</t>
-  </si>
-  <si>
-    <t>13.0 (8.0-21.0)</t>
+    <t>20,858 (24.3)</t>
+  </si>
+  <si>
+    <t>13,438 (15.7)</t>
+  </si>
+  <si>
+    <t>11,584 (13.5)</t>
+  </si>
+  <si>
+    <t>11,722 (13.7)</t>
+  </si>
+  <si>
+    <t>9,062 (10.6)</t>
+  </si>
+  <si>
+    <t>8,271 (9.6)</t>
+  </si>
+  <si>
+    <t>10,908 (12.7)</t>
   </si>
   <si>
     <t>46,272 (53.9)</t>
@@ -591,16 +657,37 @@
     <t>267 (0.4)</t>
   </si>
   <si>
+    <t>15.9 (8.1)</t>
+  </si>
+  <si>
+    <t>15.0 (10.0-21.0)</t>
+  </si>
+  <si>
     <t>36.2 (10.6)</t>
   </si>
   <si>
     <t>33.0 (28.0-43.0)</t>
   </si>
   <si>
-    <t>15.9 (8.1)</t>
-  </si>
-  <si>
-    <t>15.0 (10.0-21.0)</t>
+    <t>1,123 (1.6)</t>
+  </si>
+  <si>
+    <t>1,325 (1.9)</t>
+  </si>
+  <si>
+    <t>2,716 (4.0)</t>
+  </si>
+  <si>
+    <t>6,455 (9.5)</t>
+  </si>
+  <si>
+    <t>10,950 (16.0)</t>
+  </si>
+  <si>
+    <t>16,222 (23.8)</t>
+  </si>
+  <si>
+    <t>29,483 (43.2)</t>
   </si>
   <si>
     <t>35,742 (52.4)</t>
@@ -802,7 +889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E83"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -825,13 +912,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -855,13 +942,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -870,13 +957,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -900,13 +987,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -915,13 +1002,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -945,13 +1032,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -960,13 +1047,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -990,13 +1077,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1005,13 +1092,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1020,163 +1107,163 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1200,13 +1287,13 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1215,13 +1302,13 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1230,13 +1317,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1245,13 +1332,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1260,13 +1347,13 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1275,13 +1362,13 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1290,13 +1377,13 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1305,13 +1392,13 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1320,13 +1407,13 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1335,13 +1422,13 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1350,13 +1437,13 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1365,13 +1452,13 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1380,13 +1467,13 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1395,13 +1482,13 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1410,13 +1497,13 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1425,13 +1512,13 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1440,13 +1527,13 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -1455,13 +1542,13 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1470,13 +1557,13 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -1500,13 +1587,13 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -1515,13 +1602,13 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -1530,13 +1617,13 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1545,13 +1632,13 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -1560,13 +1647,13 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -1575,13 +1662,13 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -1590,13 +1677,13 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1605,13 +1692,13 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -1620,13 +1707,13 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -1635,13 +1722,13 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -1650,13 +1737,13 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -1665,13 +1752,13 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -1680,13 +1767,13 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -1710,13 +1797,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -1725,13 +1812,13 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -1740,13 +1827,13 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -1755,13 +1842,13 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -1770,13 +1857,13 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -1785,13 +1872,13 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -1800,13 +1887,13 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -1815,13 +1902,13 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -1830,13 +1917,13 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -1845,13 +1932,13 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -1860,13 +1947,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E71" s="1"/>
     </row>
@@ -1875,13 +1962,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E72" s="1"/>
     </row>
@@ -1890,13 +1977,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E73" s="1"/>
     </row>
@@ -1905,13 +1992,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E74" s="1"/>
     </row>
@@ -1920,15 +2007,135 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="E75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" t="s">
+        <v>270</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" t="s">
+        <v>271</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" t="s">
+        <v>274</v>
+      </c>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" t="s">
+        <v>275</v>
+      </c>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/released_outputs/table1_cox.xlsx
+++ b/released_outputs/table1_cox.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="280">
   <si>
     <t>Table 1: Demographic and Clinical Characteristics</t>
   </si>
@@ -63,7 +63,10 @@
     <t>21Dec-27Dec</t>
   </si>
   <si>
-    <t>28Dec-04Jan</t>
+    <t>28Dec-03Jan</t>
+  </si>
+  <si>
+    <t>04Jan-11Jan</t>
   </si>
   <si>
     <t>Male</t>
@@ -255,595 +258,601 @@
     <t>Total</t>
   </si>
   <si>
-    <t>153,448 (99.6)</t>
-  </si>
-  <si>
-    <t>669 (0.4)</t>
-  </si>
-  <si>
-    <t>16.2 (10.9)</t>
+    <t>183,919 (99.5)</t>
+  </si>
+  <si>
+    <t>867 (0.5)</t>
+  </si>
+  <si>
+    <t>16.2 (11.2)</t>
   </si>
   <si>
     <t>13.0 (9.0-21.0)</t>
   </si>
   <si>
-    <t>44.9 (15.8)</t>
-  </si>
-  <si>
-    <t>43.0 (31.0-58.0)</t>
-  </si>
-  <si>
-    <t>21,981 (14.3)</t>
-  </si>
-  <si>
-    <t>14,763 (9.6)</t>
-  </si>
-  <si>
-    <t>14,300 (9.3)</t>
-  </si>
-  <si>
-    <t>18,177 (11.8)</t>
-  </si>
-  <si>
-    <t>20,012 (13.0)</t>
-  </si>
-  <si>
-    <t>24,493 (15.9)</t>
-  </si>
-  <si>
-    <t>40,391 (26.2)</t>
-  </si>
-  <si>
-    <t>82,014 (53.2)</t>
-  </si>
-  <si>
-    <t>72,103 (46.8)</t>
-  </si>
-  <si>
-    <t>38.0 (18.1)</t>
-  </si>
-  <si>
-    <t>38.0 (24.0-51.0)</t>
-  </si>
-  <si>
-    <t>29,872 (19.4)</t>
-  </si>
-  <si>
-    <t>28,599 (18.6)</t>
-  </si>
-  <si>
-    <t>27,719 (18.0)</t>
-  </si>
-  <si>
-    <t>25,199 (16.4)</t>
-  </si>
-  <si>
-    <t>12,170 (7.9)</t>
-  </si>
-  <si>
-    <t>4,744 (3.1)</t>
-  </si>
-  <si>
-    <t>1,885 (1.2)</t>
-  </si>
-  <si>
-    <t>88,424 (57.4)</t>
-  </si>
-  <si>
-    <t>18,000 (11.7)</t>
-  </si>
-  <si>
-    <t>3,510 (2.3)</t>
-  </si>
-  <si>
-    <t>2,152 (1.4)</t>
-  </si>
-  <si>
-    <t>2,500 (1.6)</t>
-  </si>
-  <si>
-    <t>39,531 (25.6)</t>
-  </si>
-  <si>
-    <t>120,744 (78.3)</t>
-  </si>
-  <si>
-    <t>20,275 (13.2)</t>
-  </si>
-  <si>
-    <t>8,496 (5.5)</t>
-  </si>
-  <si>
-    <t>4,602 (3.0)</t>
-  </si>
-  <si>
-    <t>97,273 (63.1)</t>
-  </si>
-  <si>
-    <t>41,584 (27.0)</t>
-  </si>
-  <si>
-    <t>15,260 (9.9)</t>
-  </si>
-  <si>
-    <t>132,292 (85.8)</t>
-  </si>
-  <si>
-    <t>16,951 (11.0)</t>
-  </si>
-  <si>
-    <t>4,874 (3.2)</t>
-  </si>
-  <si>
-    <t>30,428 (19.7)</t>
-  </si>
-  <si>
-    <t>29,874 (19.4)</t>
-  </si>
-  <si>
-    <t>29,349 (19.0)</t>
-  </si>
-  <si>
-    <t>31,837 (20.7)</t>
-  </si>
-  <si>
-    <t>32,629 (21.2)</t>
-  </si>
-  <si>
-    <t>39,176 (25.4)</t>
-  </si>
-  <si>
-    <t>78,057 (50.6)</t>
-  </si>
-  <si>
-    <t>15,413 (10.0)</t>
-  </si>
-  <si>
-    <t>1,586 (1.0)</t>
-  </si>
-  <si>
-    <t>153,720 (99.7)</t>
-  </si>
-  <si>
-    <t>397 (0.3)</t>
-  </si>
-  <si>
-    <t>37,928 (24.6)</t>
-  </si>
-  <si>
-    <t>22,617 (14.7)</t>
-  </si>
-  <si>
-    <t>13,921 (9.0)</t>
-  </si>
-  <si>
-    <t>6,137 (4.0)</t>
-  </si>
-  <si>
-    <t>20,255 (13.1)</t>
-  </si>
-  <si>
-    <t>7,501 (4.9)</t>
-  </si>
-  <si>
-    <t>7,375 (4.8)</t>
-  </si>
-  <si>
-    <t>11,453 (7.4)</t>
-  </si>
-  <si>
-    <t>26,582 (17.2)</t>
-  </si>
-  <si>
-    <t>47,840 (31.0)</t>
-  </si>
-  <si>
-    <t>7,696 (5.0)</t>
-  </si>
-  <si>
-    <t>75,546 (49.0)</t>
-  </si>
-  <si>
-    <t>13,942 (9.0)</t>
-  </si>
-  <si>
-    <t>7,748 (5.0)</t>
+    <t>47.1 (17.4)</t>
+  </si>
+  <si>
+    <t>43.0 (33.0-60.0)</t>
+  </si>
+  <si>
+    <t>21,976 (11.9)</t>
+  </si>
+  <si>
+    <t>14,755 (8.0)</t>
+  </si>
+  <si>
+    <t>14,286 (7.7)</t>
+  </si>
+  <si>
+    <t>18,137 (9.8)</t>
+  </si>
+  <si>
+    <t>19,963 (10.8)</t>
+  </si>
+  <si>
+    <t>24,422 (13.2)</t>
+  </si>
+  <si>
+    <t>34,527 (18.7)</t>
+  </si>
+  <si>
+    <t>36,720 (19.9)</t>
+  </si>
+  <si>
+    <t>98,099 (53.1)</t>
+  </si>
+  <si>
+    <t>86,687 (46.9)</t>
+  </si>
+  <si>
+    <t>38.2 (18.1)</t>
+  </si>
+  <si>
+    <t>38.0 (24.0-52.0)</t>
+  </si>
+  <si>
+    <t>36,969 (20.0)</t>
+  </si>
+  <si>
+    <t>34,298 (18.6)</t>
+  </si>
+  <si>
+    <t>32,783 (17.7)</t>
+  </si>
+  <si>
+    <t>30,484 (16.5)</t>
+  </si>
+  <si>
+    <t>14,818 (8.0)</t>
+  </si>
+  <si>
+    <t>5,860 (3.2)</t>
+  </si>
+  <si>
+    <t>2,346 (1.3)</t>
+  </si>
+  <si>
+    <t>105,428 (57.1)</t>
+  </si>
+  <si>
+    <t>21,562 (11.7)</t>
+  </si>
+  <si>
+    <t>4,530 (2.5)</t>
+  </si>
+  <si>
+    <t>2,628 (1.4)</t>
+  </si>
+  <si>
+    <t>2,974 (1.6)</t>
+  </si>
+  <si>
+    <t>47,664 (25.8)</t>
+  </si>
+  <si>
+    <t>144,246 (78.1)</t>
+  </si>
+  <si>
+    <t>24,536 (13.3)</t>
+  </si>
+  <si>
+    <t>10,386 (5.6)</t>
+  </si>
+  <si>
+    <t>5,618 (3.0)</t>
+  </si>
+  <si>
+    <t>115,458 (62.5)</t>
+  </si>
+  <si>
+    <t>49,974 (27.0)</t>
+  </si>
+  <si>
+    <t>19,354 (10.5)</t>
+  </si>
+  <si>
+    <t>158,017 (85.5)</t>
+  </si>
+  <si>
+    <t>20,606 (11.2)</t>
+  </si>
+  <si>
+    <t>6,163 (3.3)</t>
+  </si>
+  <si>
+    <t>36,560 (19.8)</t>
+  </si>
+  <si>
+    <t>34,767 (18.8)</t>
+  </si>
+  <si>
+    <t>35,181 (19.0)</t>
+  </si>
+  <si>
+    <t>38,603 (20.9)</t>
+  </si>
+  <si>
+    <t>39,675 (21.5)</t>
+  </si>
+  <si>
+    <t>47,573 (25.7)</t>
+  </si>
+  <si>
+    <t>92,701 (50.2)</t>
+  </si>
+  <si>
+    <t>18,689 (10.1)</t>
+  </si>
+  <si>
+    <t>1,942 (1.1)</t>
+  </si>
+  <si>
+    <t>184,312 (99.7)</t>
+  </si>
+  <si>
+    <t>474 (0.3)</t>
+  </si>
+  <si>
+    <t>44,757 (24.2)</t>
+  </si>
+  <si>
+    <t>26,530 (14.4)</t>
+  </si>
+  <si>
+    <t>15,998 (8.7)</t>
+  </si>
+  <si>
+    <t>7,015 (3.8)</t>
+  </si>
+  <si>
+    <t>25,043 (13.6)</t>
+  </si>
+  <si>
+    <t>9,432 (5.1)</t>
+  </si>
+  <si>
+    <t>9,058 (4.9)</t>
+  </si>
+  <si>
+    <t>15,196 (8.2)</t>
+  </si>
+  <si>
+    <t>31,700 (17.2)</t>
+  </si>
+  <si>
+    <t>57,872 (31.3)</t>
+  </si>
+  <si>
+    <t>8,895 (4.8)</t>
+  </si>
+  <si>
+    <t>90,880 (49.2)</t>
+  </si>
+  <si>
+    <t>16,375 (8.9)</t>
+  </si>
+  <si>
+    <t>9,102 (4.9)</t>
   </si>
   <si>
     <t>non-VOC</t>
   </si>
   <si>
-    <t>85,441 (99.5)</t>
-  </si>
-  <si>
-    <t>402 (0.5)</t>
-  </si>
-  <si>
-    <t>16.4 (12.4)</t>
-  </si>
-  <si>
-    <t>13.0 (8.0-21.0)</t>
-  </si>
-  <si>
-    <t>51.8 (15.8)</t>
-  </si>
-  <si>
-    <t>53.0 (39.0-66.0)</t>
-  </si>
-  <si>
-    <t>20,858 (24.3)</t>
-  </si>
-  <si>
-    <t>13,438 (15.7)</t>
-  </si>
-  <si>
-    <t>11,584 (13.5)</t>
-  </si>
-  <si>
-    <t>11,722 (13.7)</t>
-  </si>
-  <si>
-    <t>9,062 (10.6)</t>
-  </si>
-  <si>
-    <t>8,271 (9.6)</t>
-  </si>
-  <si>
-    <t>10,908 (12.7)</t>
-  </si>
-  <si>
-    <t>46,272 (53.9)</t>
-  </si>
-  <si>
-    <t>39,571 (46.1)</t>
-  </si>
-  <si>
-    <t>38.4 (18.5)</t>
-  </si>
-  <si>
-    <t>38.0 (24.0-52.0)</t>
-  </si>
-  <si>
-    <t>15,973 (18.6)</t>
-  </si>
-  <si>
-    <t>15,716 (18.3)</t>
-  </si>
-  <si>
-    <t>14,938 (17.4)</t>
-  </si>
-  <si>
-    <t>14,211 (16.6)</t>
-  </si>
-  <si>
-    <t>7,032 (8.2)</t>
-  </si>
-  <si>
-    <t>2,857 (3.3)</t>
-  </si>
-  <si>
-    <t>1,384 (1.6)</t>
-  </si>
-  <si>
-    <t>49,296 (57.4)</t>
-  </si>
-  <si>
-    <t>11,236 (13.1)</t>
-  </si>
-  <si>
-    <t>1,624 (1.9)</t>
-  </si>
-  <si>
-    <t>1,111 (1.3)</t>
-  </si>
-  <si>
-    <t>1,272 (1.5)</t>
-  </si>
-  <si>
-    <t>21,304 (24.8)</t>
-  </si>
-  <si>
-    <t>66,182 (77.1)</t>
-  </si>
-  <si>
-    <t>11,781 (13.7)</t>
-  </si>
-  <si>
-    <t>5,025 (5.9)</t>
-  </si>
-  <si>
-    <t>2,855 (3.3)</t>
-  </si>
-  <si>
-    <t>54,239 (63.2)</t>
-  </si>
-  <si>
-    <t>23,239 (27.1)</t>
-  </si>
-  <si>
-    <t>8,365 (9.7)</t>
-  </si>
-  <si>
-    <t>72,697 (84.7)</t>
-  </si>
-  <si>
-    <t>9,995 (11.6)</t>
-  </si>
-  <si>
-    <t>3,151 (3.7)</t>
-  </si>
-  <si>
-    <t>14,754 (17.2)</t>
-  </si>
-  <si>
-    <t>15,261 (17.8)</t>
-  </si>
-  <si>
-    <t>15,064 (17.5)</t>
-  </si>
-  <si>
-    <t>18,163 (21.2)</t>
-  </si>
-  <si>
-    <t>22,601 (26.3)</t>
-  </si>
-  <si>
-    <t>22,285 (26.0)</t>
-  </si>
-  <si>
-    <t>42,344 (49.3)</t>
-  </si>
-  <si>
-    <t>8,896 (10.4)</t>
-  </si>
-  <si>
-    <t>949 (1.1)</t>
-  </si>
-  <si>
-    <t>85,513 (99.6)</t>
-  </si>
-  <si>
-    <t>330 (0.4)</t>
-  </si>
-  <si>
-    <t>9,213 (10.7)</t>
-  </si>
-  <si>
-    <t>17,865 (20.8)</t>
-  </si>
-  <si>
-    <t>4,366 (5.1)</t>
-  </si>
-  <si>
-    <t>5,441 (6.3)</t>
-  </si>
-  <si>
-    <t>13,472 (15.7)</t>
-  </si>
-  <si>
-    <t>2,512 (2.9)</t>
-  </si>
-  <si>
-    <t>4,533 (5.3)</t>
-  </si>
-  <si>
-    <t>7,056 (8.2)</t>
-  </si>
-  <si>
-    <t>21,247 (24.8)</t>
-  </si>
-  <si>
-    <t>26,138 (30.4)</t>
-  </si>
-  <si>
-    <t>6,448 (7.5)</t>
-  </si>
-  <si>
-    <t>40,528 (47.2)</t>
-  </si>
-  <si>
-    <t>7,973 (9.3)</t>
-  </si>
-  <si>
-    <t>3,871 (4.5)</t>
+    <t>91,327 (99.5)</t>
+  </si>
+  <si>
+    <t>448 (0.5)</t>
+  </si>
+  <si>
+    <t>16.8 (13.3)</t>
+  </si>
+  <si>
+    <t>13.0 (8.0-22.0)</t>
+  </si>
+  <si>
+    <t>55.8 (17.8)</t>
+  </si>
+  <si>
+    <t>57.0 (40.0-72.0)</t>
+  </si>
+  <si>
+    <t>20,854 (22.7)</t>
+  </si>
+  <si>
+    <t>13,432 (14.6)</t>
+  </si>
+  <si>
+    <t>11,576 (12.6)</t>
+  </si>
+  <si>
+    <t>11,703 (12.8)</t>
+  </si>
+  <si>
+    <t>9,043 (9.9)</t>
+  </si>
+  <si>
+    <t>8,246 (9.0)</t>
+  </si>
+  <si>
+    <t>9,477 (10.3)</t>
+  </si>
+  <si>
+    <t>7,444 (8.1)</t>
+  </si>
+  <si>
+    <t>49,468 (53.9)</t>
+  </si>
+  <si>
+    <t>42,307 (46.1)</t>
+  </si>
+  <si>
+    <t>38.5 (18.5)</t>
+  </si>
+  <si>
+    <t>17,302 (18.9)</t>
+  </si>
+  <si>
+    <t>16,782 (18.3)</t>
+  </si>
+  <si>
+    <t>15,904 (17.3)</t>
+  </si>
+  <si>
+    <t>15,261 (16.6)</t>
+  </si>
+  <si>
+    <t>7,587 (8.3)</t>
+  </si>
+  <si>
+    <t>3,116 (3.4)</t>
+  </si>
+  <si>
+    <t>1,513 (1.6)</t>
+  </si>
+  <si>
+    <t>52,687 (57.4)</t>
+  </si>
+  <si>
+    <t>11,880 (12.9)</t>
+  </si>
+  <si>
+    <t>1,753 (1.9)</t>
+  </si>
+  <si>
+    <t>1,175 (1.3)</t>
+  </si>
+  <si>
+    <t>1,351 (1.5)</t>
+  </si>
+  <si>
+    <t>22,929 (25.0)</t>
+  </si>
+  <si>
+    <t>70,584 (76.9)</t>
+  </si>
+  <si>
+    <t>12,664 (13.8)</t>
+  </si>
+  <si>
+    <t>5,446 (5.9)</t>
+  </si>
+  <si>
+    <t>3,081 (3.4)</t>
+  </si>
+  <si>
+    <t>57,727 (62.9)</t>
+  </si>
+  <si>
+    <t>24,907 (27.1)</t>
+  </si>
+  <si>
+    <t>9,141 (10.0)</t>
+  </si>
+  <si>
+    <t>77,538 (84.5)</t>
+  </si>
+  <si>
+    <t>10,768 (11.7)</t>
+  </si>
+  <si>
+    <t>3,469 (3.8)</t>
+  </si>
+  <si>
+    <t>15,973 (17.4)</t>
+  </si>
+  <si>
+    <t>16,000 (17.4)</t>
+  </si>
+  <si>
+    <t>16,192 (17.6)</t>
+  </si>
+  <si>
+    <t>19,479 (21.2)</t>
+  </si>
+  <si>
+    <t>24,131 (26.3)</t>
+  </si>
+  <si>
+    <t>24,042 (26.2)</t>
+  </si>
+  <si>
+    <t>45,057 (49.1)</t>
+  </si>
+  <si>
+    <t>9,469 (10.3)</t>
+  </si>
+  <si>
+    <t>1,007 (1.1)</t>
+  </si>
+  <si>
+    <t>91,425 (99.6)</t>
+  </si>
+  <si>
+    <t>350 (0.4)</t>
+  </si>
+  <si>
+    <t>9,731 (10.6)</t>
+  </si>
+  <si>
+    <t>18,708 (20.4)</t>
+  </si>
+  <si>
+    <t>4,503 (4.9)</t>
+  </si>
+  <si>
+    <t>5,791 (6.3)</t>
+  </si>
+  <si>
+    <t>14,743 (16.1)</t>
+  </si>
+  <si>
+    <t>2,620 (2.9)</t>
+  </si>
+  <si>
+    <t>4,893 (5.3)</t>
+  </si>
+  <si>
+    <t>7,601 (8.3)</t>
+  </si>
+  <si>
+    <t>23,140 (25.2)</t>
+  </si>
+  <si>
+    <t>28,106 (30.6)</t>
+  </si>
+  <si>
+    <t>6,811 (7.4)</t>
+  </si>
+  <si>
+    <t>43,239 (47.1)</t>
+  </si>
+  <si>
+    <t>8,526 (9.3)</t>
+  </si>
+  <si>
+    <t>4,119 (4.5)</t>
   </si>
   <si>
     <t>VOC</t>
   </si>
   <si>
-    <t>68,007 (99.6)</t>
-  </si>
-  <si>
-    <t>267 (0.4)</t>
-  </si>
-  <si>
-    <t>15.9 (8.1)</t>
-  </si>
-  <si>
-    <t>15.0 (10.0-21.0)</t>
-  </si>
-  <si>
-    <t>36.2 (10.6)</t>
-  </si>
-  <si>
-    <t>33.0 (28.0-43.0)</t>
-  </si>
-  <si>
-    <t>1,123 (1.6)</t>
-  </si>
-  <si>
-    <t>1,325 (1.9)</t>
-  </si>
-  <si>
-    <t>2,716 (4.0)</t>
-  </si>
-  <si>
-    <t>6,455 (9.5)</t>
-  </si>
-  <si>
-    <t>10,950 (16.0)</t>
-  </si>
-  <si>
-    <t>16,222 (23.8)</t>
-  </si>
-  <si>
-    <t>29,483 (43.2)</t>
-  </si>
-  <si>
-    <t>35,742 (52.4)</t>
-  </si>
-  <si>
-    <t>32,532 (47.6)</t>
-  </si>
-  <si>
-    <t>37.6 (17.6)</t>
+    <t>92,592 (99.5)</t>
+  </si>
+  <si>
+    <t>419 (0.5)</t>
+  </si>
+  <si>
+    <t>15.6 (8.3)</t>
+  </si>
+  <si>
+    <t>14.0 (9.0-21.0)</t>
+  </si>
+  <si>
+    <t>38.5 (11.8)</t>
+  </si>
+  <si>
+    <t>36.0 (30.0-45.0)</t>
+  </si>
+  <si>
+    <t>1,122 (1.2)</t>
+  </si>
+  <si>
+    <t>1,323 (1.4)</t>
+  </si>
+  <si>
+    <t>2,710 (2.9)</t>
+  </si>
+  <si>
+    <t>6,434 (6.9)</t>
+  </si>
+  <si>
+    <t>10,920 (11.7)</t>
+  </si>
+  <si>
+    <t>16,176 (17.4)</t>
+  </si>
+  <si>
+    <t>25,050 (26.9)</t>
+  </si>
+  <si>
+    <t>29,276 (31.5)</t>
+  </si>
+  <si>
+    <t>48,631 (52.3)</t>
+  </si>
+  <si>
+    <t>44,380 (47.7)</t>
+  </si>
+  <si>
+    <t>37.9 (17.7)</t>
   </si>
   <si>
     <t>37.0 (24.0-51.0)</t>
   </si>
   <si>
-    <t>13,899 (20.4)</t>
-  </si>
-  <si>
-    <t>12,883 (18.9)</t>
-  </si>
-  <si>
-    <t>12,781 (18.7)</t>
-  </si>
-  <si>
-    <t>10,988 (16.1)</t>
-  </si>
-  <si>
-    <t>5,138 (7.5)</t>
-  </si>
-  <si>
-    <t>1,887 (2.8)</t>
-  </si>
-  <si>
-    <t>501 (0.7)</t>
-  </si>
-  <si>
-    <t>39,128 (57.3)</t>
-  </si>
-  <si>
-    <t>6,764 (9.9)</t>
-  </si>
-  <si>
-    <t>1,886 (2.8)</t>
-  </si>
-  <si>
-    <t>1,041 (1.5)</t>
-  </si>
-  <si>
-    <t>1,228 (1.8)</t>
-  </si>
-  <si>
-    <t>18,227 (26.7)</t>
-  </si>
-  <si>
-    <t>54,562 (79.9)</t>
-  </si>
-  <si>
-    <t>8,494 (12.4)</t>
-  </si>
-  <si>
-    <t>3,471 (5.1)</t>
-  </si>
-  <si>
-    <t>1,747 (2.6)</t>
-  </si>
-  <si>
-    <t>43,034 (63.0)</t>
-  </si>
-  <si>
-    <t>18,345 (26.9)</t>
-  </si>
-  <si>
-    <t>6,895 (10.1)</t>
-  </si>
-  <si>
-    <t>59,595 (87.3)</t>
-  </si>
-  <si>
-    <t>6,956 (10.2)</t>
-  </si>
-  <si>
-    <t>1,723 (2.5)</t>
-  </si>
-  <si>
-    <t>15,674 (23.0)</t>
-  </si>
-  <si>
-    <t>14,613 (21.4)</t>
-  </si>
-  <si>
-    <t>14,285 (20.9)</t>
-  </si>
-  <si>
-    <t>13,674 (20.0)</t>
-  </si>
-  <si>
-    <t>10,028 (14.7)</t>
-  </si>
-  <si>
-    <t>16,891 (24.7)</t>
-  </si>
-  <si>
-    <t>35,713 (52.3)</t>
-  </si>
-  <si>
-    <t>6,517 (9.5)</t>
-  </si>
-  <si>
-    <t>637 (0.9)</t>
-  </si>
-  <si>
-    <t>68,207 (99.9)</t>
-  </si>
-  <si>
-    <t>67 (0.1)</t>
-  </si>
-  <si>
-    <t>28,715 (42.1)</t>
-  </si>
-  <si>
-    <t>4,752 (7.0)</t>
-  </si>
-  <si>
-    <t>9,555 (14.0)</t>
-  </si>
-  <si>
-    <t>696 (1.0)</t>
-  </si>
-  <si>
-    <t>6,783 (9.9)</t>
-  </si>
-  <si>
-    <t>4,989 (7.3)</t>
-  </si>
-  <si>
-    <t>2,842 (4.2)</t>
-  </si>
-  <si>
-    <t>4,397 (6.4)</t>
-  </si>
-  <si>
-    <t>5,335 (7.8)</t>
-  </si>
-  <si>
-    <t>21,702 (31.8)</t>
-  </si>
-  <si>
-    <t>1,248 (1.8)</t>
-  </si>
-  <si>
-    <t>35,018 (51.3)</t>
-  </si>
-  <si>
-    <t>5,969 (8.7)</t>
-  </si>
-  <si>
-    <t>3,877 (5.7)</t>
+    <t>19,667 (21.1)</t>
+  </si>
+  <si>
+    <t>17,516 (18.8)</t>
+  </si>
+  <si>
+    <t>16,879 (18.1)</t>
+  </si>
+  <si>
+    <t>15,223 (16.4)</t>
+  </si>
+  <si>
+    <t>7,231 (7.8)</t>
+  </si>
+  <si>
+    <t>2,744 (3.0)</t>
+  </si>
+  <si>
+    <t>833 (0.9)</t>
+  </si>
+  <si>
+    <t>52,741 (56.7)</t>
+  </si>
+  <si>
+    <t>9,682 (10.4)</t>
+  </si>
+  <si>
+    <t>2,777 (3.0)</t>
+  </si>
+  <si>
+    <t>1,453 (1.6)</t>
+  </si>
+  <si>
+    <t>1,623 (1.7)</t>
+  </si>
+  <si>
+    <t>24,735 (26.6)</t>
+  </si>
+  <si>
+    <t>73,662 (79.2)</t>
+  </si>
+  <si>
+    <t>11,872 (12.8)</t>
+  </si>
+  <si>
+    <t>4,940 (5.3)</t>
+  </si>
+  <si>
+    <t>2,537 (2.7)</t>
+  </si>
+  <si>
+    <t>57,731 (62.1)</t>
+  </si>
+  <si>
+    <t>25,067 (27.0)</t>
+  </si>
+  <si>
+    <t>10,213 (11.0)</t>
+  </si>
+  <si>
+    <t>80,479 (86.5)</t>
+  </si>
+  <si>
+    <t>9,838 (10.6)</t>
+  </si>
+  <si>
+    <t>2,694 (2.9)</t>
+  </si>
+  <si>
+    <t>20,587 (22.1)</t>
+  </si>
+  <si>
+    <t>18,767 (20.2)</t>
+  </si>
+  <si>
+    <t>18,989 (20.4)</t>
+  </si>
+  <si>
+    <t>19,124 (20.6)</t>
+  </si>
+  <si>
+    <t>15,544 (16.7)</t>
+  </si>
+  <si>
+    <t>23,531 (25.3)</t>
+  </si>
+  <si>
+    <t>47,644 (51.2)</t>
+  </si>
+  <si>
+    <t>9,220 (9.9)</t>
+  </si>
+  <si>
+    <t>935 (1.0)</t>
+  </si>
+  <si>
+    <t>92,887 (99.9)</t>
+  </si>
+  <si>
+    <t>124 (0.1)</t>
+  </si>
+  <si>
+    <t>35,026 (37.7)</t>
+  </si>
+  <si>
+    <t>7,822 (8.4)</t>
+  </si>
+  <si>
+    <t>11,495 (12.4)</t>
+  </si>
+  <si>
+    <t>1,224 (1.3)</t>
+  </si>
+  <si>
+    <t>10,300 (11.1)</t>
+  </si>
+  <si>
+    <t>6,812 (7.3)</t>
+  </si>
+  <si>
+    <t>4,165 (4.5)</t>
+  </si>
+  <si>
+    <t>7,595 (8.2)</t>
+  </si>
+  <si>
+    <t>8,560 (9.2)</t>
+  </si>
+  <si>
+    <t>29,766 (32.0)</t>
+  </si>
+  <si>
+    <t>2,084 (2.2)</t>
+  </si>
+  <si>
+    <t>47,641 (51.2)</t>
+  </si>
+  <si>
+    <t>7,849 (8.4)</t>
+  </si>
+  <si>
+    <t>4,983 (5.4)</t>
   </si>
 </sst>
 </file>
@@ -889,7 +898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -912,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -942,13 +951,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -957,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -987,13 +996,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1002,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1032,13 +1041,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1047,13 +1056,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1077,13 +1086,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1092,13 +1101,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1107,13 +1116,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1122,13 +1131,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1137,13 +1146,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1152,13 +1161,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1167,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1182,13 +1191,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1197,13 +1206,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1212,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1227,58 +1236,58 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1287,13 +1296,13 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1302,13 +1311,13 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1317,13 +1326,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1332,13 +1341,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1347,13 +1356,13 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1362,13 +1371,13 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1377,13 +1386,13 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1392,13 +1401,13 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1407,13 +1416,13 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1422,13 +1431,13 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1437,13 +1446,13 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1452,13 +1461,13 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1467,13 +1476,13 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1482,13 +1491,13 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1497,13 +1506,13 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1512,13 +1521,13 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1527,13 +1536,13 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -1542,13 +1551,13 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1557,13 +1566,13 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -1572,13 +1581,13 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -1587,13 +1596,13 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -1602,13 +1611,13 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -1617,13 +1626,13 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1632,13 +1641,13 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -1647,13 +1656,13 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -1662,13 +1671,13 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -1677,13 +1686,13 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1692,13 +1701,13 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -1707,13 +1716,13 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -1722,13 +1731,13 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -1737,13 +1746,13 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -1752,13 +1761,13 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -1767,13 +1776,13 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -1782,13 +1791,13 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -1797,13 +1806,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -1812,13 +1821,13 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -1827,13 +1836,13 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -1842,13 +1851,13 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -1857,13 +1866,13 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -1872,13 +1881,13 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -1887,13 +1896,13 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -1902,13 +1911,13 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -1917,13 +1926,13 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -1932,13 +1941,13 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -1947,13 +1956,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E71" s="1"/>
     </row>
@@ -1962,13 +1971,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E72" s="1"/>
     </row>
@@ -1977,13 +1986,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E73" s="1"/>
     </row>
@@ -1992,13 +2001,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E74" s="1"/>
     </row>
@@ -2007,13 +2016,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E75" s="1"/>
     </row>
@@ -2022,13 +2031,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E76" s="1"/>
     </row>
@@ -2037,13 +2046,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E77" s="1"/>
     </row>
@@ -2052,13 +2061,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="E78" s="1"/>
     </row>
@@ -2067,13 +2076,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1"/>
     </row>
@@ -2082,13 +2091,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -2097,13 +2106,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E81" s="1"/>
     </row>
@@ -2112,13 +2121,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E82" s="1"/>
     </row>
@@ -2127,15 +2136,30 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/released_outputs/table1_cox.xlsx
+++ b/released_outputs/table1_cox.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="291">
   <si>
     <t>Table 1: Demographic and Clinical Characteristics</t>
   </si>
@@ -21,6 +21,12 @@
     <t/>
   </si>
   <si>
+    <t>1=Population for Cox analysis</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Outcome for Cox</t>
   </si>
   <si>
@@ -258,6 +264,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>184,786 (100.0)</t>
+  </si>
+  <si>
     <t>183,919 (99.5)</t>
   </si>
   <si>
@@ -408,6 +417,9 @@
     <t>1,942 (1.1)</t>
   </si>
   <si>
+    <t>23,881 (12.9)</t>
+  </si>
+  <si>
     <t>184,312 (99.7)</t>
   </si>
   <si>
@@ -456,9 +468,15 @@
     <t>9,102 (4.9)</t>
   </si>
   <si>
+    <t>1,662 (0.9)</t>
+  </si>
+  <si>
     <t>non-VOC</t>
   </si>
   <si>
+    <t>91,775 (100.0)</t>
+  </si>
+  <si>
     <t>91,327 (99.5)</t>
   </si>
   <si>
@@ -606,6 +624,9 @@
     <t>1,007 (1.1)</t>
   </si>
   <si>
+    <t>12,200 (13.3)</t>
+  </si>
+  <si>
     <t>91,425 (99.6)</t>
   </si>
   <si>
@@ -654,9 +675,15 @@
     <t>4,119 (4.5)</t>
   </si>
   <si>
+    <t>974 (1.1)</t>
+  </si>
+  <si>
     <t>VOC</t>
   </si>
   <si>
+    <t>93,011 (100.0)</t>
+  </si>
+  <si>
     <t>92,592 (99.5)</t>
   </si>
   <si>
@@ -807,6 +834,9 @@
     <t>935 (1.0)</t>
   </si>
   <si>
+    <t>11,681 (12.6)</t>
+  </si>
+  <si>
     <t>92,887 (99.9)</t>
   </si>
   <si>
@@ -853,6 +883,9 @@
   </si>
   <si>
     <t>4,983 (5.4)</t>
+  </si>
+  <si>
+    <t>688 (0.7)</t>
   </si>
 </sst>
 </file>
@@ -898,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E88"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -921,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -951,13 +984,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -966,13 +999,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -981,13 +1014,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -996,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1011,13 +1044,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1026,73 +1059,73 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1101,13 +1134,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1116,13 +1149,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1131,13 +1164,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1146,13 +1179,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1161,13 +1194,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1176,13 +1209,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1191,13 +1224,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1206,13 +1239,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1221,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1236,13 +1269,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1251,73 +1284,73 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1326,13 +1359,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1341,13 +1374,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1356,13 +1389,13 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1371,13 +1404,13 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1386,13 +1419,13 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1401,13 +1434,13 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1416,13 +1449,13 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1431,13 +1464,13 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1446,13 +1479,13 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1461,13 +1494,13 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1476,13 +1509,13 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1491,13 +1524,13 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1506,13 +1539,13 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1521,13 +1554,13 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1536,13 +1569,13 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -1551,13 +1584,13 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1566,13 +1599,13 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -1581,13 +1614,13 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -1596,13 +1629,13 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -1611,13 +1644,13 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -1626,13 +1659,13 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1641,13 +1674,13 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -1656,13 +1689,13 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -1671,13 +1704,13 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -1686,13 +1719,13 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1701,13 +1734,13 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -1716,13 +1749,13 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -1731,13 +1764,13 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D56" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -1746,13 +1779,13 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -1761,13 +1794,13 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -1776,13 +1809,13 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -1791,13 +1824,13 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -1806,13 +1839,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -1821,13 +1854,13 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -1836,13 +1869,13 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -1851,13 +1884,13 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -1866,13 +1899,13 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -1881,13 +1914,13 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -1896,34 +1929,34 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -1938,228 +1971,288 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D70" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D76" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D77" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D84" t="s">
+        <v>286</v>
+      </c>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
         <v>79</v>
       </c>
-      <c r="B84" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" t="s">
-        <v>212</v>
-      </c>
-      <c r="D84" t="s">
-        <v>279</v>
-      </c>
-      <c r="E84" s="1"/>
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" t="s">
+        <v>287</v>
+      </c>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" t="s">
+        <v>219</v>
+      </c>
+      <c r="D87" t="s">
+        <v>289</v>
+      </c>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" t="s">
+        <v>290</v>
+      </c>
+      <c r="E88" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/released_outputs/table1_cox.xlsx
+++ b/released_outputs/table1_cox.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="323">
   <si>
     <t>Table 1: Demographic and Clinical Characteristics</t>
   </si>
@@ -27,24 +27,36 @@
     <t>N</t>
   </si>
   <si>
+    <t>Outcome hosp|test</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Population with days spent in ICU</t>
+  </si>
+  <si>
+    <t>Days spent in ICU</t>
+  </si>
+  <si>
+    <t>Mean (SD)</t>
+  </si>
+  <si>
+    <t>Median (IQR)</t>
+  </si>
+  <si>
     <t>Outcome for Cox</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>Outcome death|hosp</t>
   </si>
   <si>
     <t>Time to death</t>
   </si>
   <si>
-    <t>Mean (SD)</t>
-  </si>
-  <si>
-    <t>Median (IQR)</t>
-  </si>
-  <si>
     <t>Follow-up time</t>
   </si>
   <si>
@@ -90,6 +102,9 @@
     <t>Grouped age</t>
   </si>
   <si>
+    <t>0-&lt;18</t>
+  </si>
+  <si>
     <t>18-&lt;30</t>
   </si>
   <si>
@@ -264,55 +279,79 @@
     <t>Total</t>
   </si>
   <si>
-    <t>184,786 (100.0)</t>
-  </si>
-  <si>
-    <t>183,919 (99.5)</t>
-  </si>
-  <si>
-    <t>867 (0.5)</t>
-  </si>
-  <si>
-    <t>16.2 (11.2)</t>
-  </si>
-  <si>
-    <t>13.0 (9.0-21.0)</t>
-  </si>
-  <si>
-    <t>47.1 (17.4)</t>
-  </si>
-  <si>
-    <t>43.0 (33.0-60.0)</t>
-  </si>
-  <si>
-    <t>21,976 (11.9)</t>
-  </si>
-  <si>
-    <t>14,755 (8.0)</t>
-  </si>
-  <si>
-    <t>14,286 (7.7)</t>
-  </si>
-  <si>
-    <t>18,137 (9.8)</t>
-  </si>
-  <si>
-    <t>19,963 (10.8)</t>
-  </si>
-  <si>
-    <t>24,422 (13.2)</t>
-  </si>
-  <si>
-    <t>34,527 (18.7)</t>
-  </si>
-  <si>
-    <t>36,720 (19.9)</t>
-  </si>
-  <si>
-    <t>98,099 (53.1)</t>
-  </si>
-  <si>
-    <t>86,687 (46.9)</t>
+    <t>185,234 (100.0)</t>
+  </si>
+  <si>
+    <t>180,324 (97.3)</t>
+  </si>
+  <si>
+    <t>4,910 (2.7)</t>
+  </si>
+  <si>
+    <t>184,618 (99.7)</t>
+  </si>
+  <si>
+    <t>616 (0.3)</t>
+  </si>
+  <si>
+    <t>12.0 (10.9)</t>
+  </si>
+  <si>
+    <t>8.0 (5.0-15.0)</t>
+  </si>
+  <si>
+    <t>184,249 (99.5)</t>
+  </si>
+  <si>
+    <t>985 (0.5)</t>
+  </si>
+  <si>
+    <t>4,241 (2.3)</t>
+  </si>
+  <si>
+    <t>669 (0.4)</t>
+  </si>
+  <si>
+    <t>20.0 (17.0)</t>
+  </si>
+  <si>
+    <t>15.0 (9.0-25.0)</t>
+  </si>
+  <si>
+    <t>95.4 (37.4)</t>
+  </si>
+  <si>
+    <t>105.0 (66.0-123.0)</t>
+  </si>
+  <si>
+    <t>22,062 (11.9)</t>
+  </si>
+  <si>
+    <t>14,788 (8.0)</t>
+  </si>
+  <si>
+    <t>14,326 (7.7)</t>
+  </si>
+  <si>
+    <t>18,194 (9.8)</t>
+  </si>
+  <si>
+    <t>20,010 (10.8)</t>
+  </si>
+  <si>
+    <t>24,444 (13.2)</t>
+  </si>
+  <si>
+    <t>34,589 (18.7)</t>
+  </si>
+  <si>
+    <t>36,821 (19.9)</t>
+  </si>
+  <si>
+    <t>98,308 (53.1)</t>
+  </si>
+  <si>
+    <t>86,926 (46.9)</t>
   </si>
   <si>
     <t>38.2 (18.1)</t>
@@ -321,415 +360,469 @@
     <t>38.0 (24.0-52.0)</t>
   </si>
   <si>
-    <t>36,969 (20.0)</t>
-  </si>
-  <si>
-    <t>34,298 (18.6)</t>
-  </si>
-  <si>
-    <t>32,783 (17.7)</t>
-  </si>
-  <si>
-    <t>30,484 (16.5)</t>
-  </si>
-  <si>
-    <t>14,818 (8.0)</t>
-  </si>
-  <si>
-    <t>5,860 (3.2)</t>
-  </si>
-  <si>
-    <t>2,346 (1.3)</t>
-  </si>
-  <si>
-    <t>105,428 (57.1)</t>
-  </si>
-  <si>
-    <t>21,562 (11.7)</t>
-  </si>
-  <si>
-    <t>4,530 (2.5)</t>
-  </si>
-  <si>
-    <t>2,628 (1.4)</t>
-  </si>
-  <si>
-    <t>2,974 (1.6)</t>
-  </si>
-  <si>
-    <t>47,664 (25.8)</t>
-  </si>
-  <si>
-    <t>144,246 (78.1)</t>
-  </si>
-  <si>
-    <t>24,536 (13.3)</t>
-  </si>
-  <si>
-    <t>10,386 (5.6)</t>
-  </si>
-  <si>
-    <t>5,618 (3.0)</t>
-  </si>
-  <si>
-    <t>115,458 (62.5)</t>
-  </si>
-  <si>
-    <t>49,974 (27.0)</t>
-  </si>
-  <si>
-    <t>19,354 (10.5)</t>
-  </si>
-  <si>
-    <t>158,017 (85.5)</t>
-  </si>
-  <si>
-    <t>20,606 (11.2)</t>
-  </si>
-  <si>
-    <t>6,163 (3.3)</t>
-  </si>
-  <si>
-    <t>36,560 (19.8)</t>
-  </si>
-  <si>
-    <t>34,767 (18.8)</t>
-  </si>
-  <si>
-    <t>35,181 (19.0)</t>
-  </si>
-  <si>
-    <t>38,603 (20.9)</t>
-  </si>
-  <si>
-    <t>39,675 (21.5)</t>
-  </si>
-  <si>
-    <t>47,573 (25.7)</t>
-  </si>
-  <si>
-    <t>92,701 (50.2)</t>
-  </si>
-  <si>
-    <t>18,689 (10.1)</t>
-  </si>
-  <si>
-    <t>1,942 (1.1)</t>
-  </si>
-  <si>
-    <t>23,881 (12.9)</t>
-  </si>
-  <si>
-    <t>184,312 (99.7)</t>
-  </si>
-  <si>
-    <t>474 (0.3)</t>
-  </si>
-  <si>
-    <t>44,757 (24.2)</t>
-  </si>
-  <si>
-    <t>26,530 (14.4)</t>
-  </si>
-  <si>
-    <t>15,998 (8.7)</t>
-  </si>
-  <si>
-    <t>7,015 (3.8)</t>
-  </si>
-  <si>
-    <t>25,043 (13.6)</t>
-  </si>
-  <si>
-    <t>9,432 (5.1)</t>
-  </si>
-  <si>
-    <t>9,058 (4.9)</t>
-  </si>
-  <si>
-    <t>15,196 (8.2)</t>
-  </si>
-  <si>
-    <t>31,700 (17.2)</t>
-  </si>
-  <si>
-    <t>57,872 (31.3)</t>
-  </si>
-  <si>
-    <t>8,895 (4.8)</t>
-  </si>
-  <si>
-    <t>90,880 (49.2)</t>
-  </si>
-  <si>
-    <t>16,375 (8.9)</t>
-  </si>
-  <si>
-    <t>9,102 (4.9)</t>
-  </si>
-  <si>
-    <t>1,662 (0.9)</t>
+    <t>27,276 (14.7)</t>
+  </si>
+  <si>
+    <t>37,059 (20.0)</t>
+  </si>
+  <si>
+    <t>34,337 (18.5)</t>
+  </si>
+  <si>
+    <t>32,854 (17.7)</t>
+  </si>
+  <si>
+    <t>30,601 (16.5)</t>
+  </si>
+  <si>
+    <t>14,869 (8.0)</t>
+  </si>
+  <si>
+    <t>5,882 (3.2)</t>
+  </si>
+  <si>
+    <t>2,356 (1.3)</t>
+  </si>
+  <si>
+    <t>106,257 (57.4)</t>
+  </si>
+  <si>
+    <t>21,692 (11.7)</t>
+  </si>
+  <si>
+    <t>4,556 (2.5)</t>
+  </si>
+  <si>
+    <t>2,654 (1.4)</t>
+  </si>
+  <si>
+    <t>3,003 (1.6)</t>
+  </si>
+  <si>
+    <t>47,072 (25.4)</t>
+  </si>
+  <si>
+    <t>144,599 (78.1)</t>
+  </si>
+  <si>
+    <t>24,597 (13.3)</t>
+  </si>
+  <si>
+    <t>10,416 (5.6)</t>
+  </si>
+  <si>
+    <t>5,622 (3.0)</t>
+  </si>
+  <si>
+    <t>115,730 (62.5)</t>
+  </si>
+  <si>
+    <t>50,135 (27.1)</t>
+  </si>
+  <si>
+    <t>19,369 (10.5)</t>
+  </si>
+  <si>
+    <t>158,613 (85.6)</t>
+  </si>
+  <si>
+    <t>20,410 (11.0)</t>
+  </si>
+  <si>
+    <t>6,211 (3.4)</t>
+  </si>
+  <si>
+    <t>36,621 (19.8)</t>
+  </si>
+  <si>
+    <t>35,461 (19.1)</t>
+  </si>
+  <si>
+    <t>34,698 (18.7)</t>
+  </si>
+  <si>
+    <t>38,685 (20.9)</t>
+  </si>
+  <si>
+    <t>39,769 (21.5)</t>
+  </si>
+  <si>
+    <t>47,658 (25.7)</t>
+  </si>
+  <si>
+    <t>92,886 (50.1)</t>
+  </si>
+  <si>
+    <t>18,728 (10.1)</t>
+  </si>
+  <si>
+    <t>1,943 (1.0)</t>
+  </si>
+  <si>
+    <t>24,019 (13.0)</t>
+  </si>
+  <si>
+    <t>184,756 (99.7)</t>
+  </si>
+  <si>
+    <t>478 (0.3)</t>
+  </si>
+  <si>
+    <t>44,658 (24.1)</t>
+  </si>
+  <si>
+    <t>26,579 (14.3)</t>
+  </si>
+  <si>
+    <t>15,986 (8.6)</t>
+  </si>
+  <si>
+    <t>7,091 (3.8)</t>
+  </si>
+  <si>
+    <t>25,018 (13.5)</t>
+  </si>
+  <si>
+    <t>9,565 (5.2)</t>
+  </si>
+  <si>
+    <t>9,072 (4.9)</t>
+  </si>
+  <si>
+    <t>15,280 (8.2)</t>
+  </si>
+  <si>
+    <t>31,923 (17.2)</t>
+  </si>
+  <si>
+    <t>57,827 (31.2)</t>
+  </si>
+  <si>
+    <t>8,920 (4.8)</t>
+  </si>
+  <si>
+    <t>91,201 (49.2)</t>
+  </si>
+  <si>
+    <t>16,417 (8.9)</t>
+  </si>
+  <si>
+    <t>9,213 (5.0)</t>
+  </si>
+  <si>
+    <t>1,656 (0.9)</t>
   </si>
   <si>
     <t>non-VOC</t>
   </si>
   <si>
-    <t>91,775 (100.0)</t>
-  </si>
-  <si>
-    <t>91,327 (99.5)</t>
-  </si>
-  <si>
-    <t>448 (0.5)</t>
-  </si>
-  <si>
-    <t>16.8 (13.3)</t>
-  </si>
-  <si>
-    <t>13.0 (8.0-22.0)</t>
-  </si>
-  <si>
-    <t>55.8 (17.8)</t>
-  </si>
-  <si>
-    <t>57.0 (40.0-72.0)</t>
-  </si>
-  <si>
-    <t>20,854 (22.7)</t>
-  </si>
-  <si>
-    <t>13,432 (14.6)</t>
-  </si>
-  <si>
-    <t>11,576 (12.6)</t>
-  </si>
-  <si>
-    <t>11,703 (12.8)</t>
-  </si>
-  <si>
-    <t>9,043 (9.9)</t>
-  </si>
-  <si>
-    <t>8,246 (9.0)</t>
-  </si>
-  <si>
-    <t>9,477 (10.3)</t>
-  </si>
-  <si>
-    <t>7,444 (8.1)</t>
-  </si>
-  <si>
-    <t>49,468 (53.9)</t>
-  </si>
-  <si>
-    <t>42,307 (46.1)</t>
-  </si>
-  <si>
-    <t>38.5 (18.5)</t>
-  </si>
-  <si>
-    <t>17,302 (18.9)</t>
-  </si>
-  <si>
-    <t>16,782 (18.3)</t>
-  </si>
-  <si>
-    <t>15,904 (17.3)</t>
-  </si>
-  <si>
-    <t>15,261 (16.6)</t>
-  </si>
-  <si>
-    <t>7,587 (8.3)</t>
-  </si>
-  <si>
-    <t>3,116 (3.4)</t>
-  </si>
-  <si>
-    <t>1,513 (1.6)</t>
-  </si>
-  <si>
-    <t>52,687 (57.4)</t>
-  </si>
-  <si>
-    <t>11,880 (12.9)</t>
-  </si>
-  <si>
-    <t>1,753 (1.9)</t>
-  </si>
-  <si>
-    <t>1,175 (1.3)</t>
-  </si>
-  <si>
-    <t>1,351 (1.5)</t>
-  </si>
-  <si>
-    <t>22,929 (25.0)</t>
-  </si>
-  <si>
-    <t>70,584 (76.9)</t>
-  </si>
-  <si>
-    <t>12,664 (13.8)</t>
-  </si>
-  <si>
-    <t>5,446 (5.9)</t>
-  </si>
-  <si>
-    <t>3,081 (3.4)</t>
-  </si>
-  <si>
-    <t>57,727 (62.9)</t>
-  </si>
-  <si>
-    <t>24,907 (27.1)</t>
-  </si>
-  <si>
-    <t>9,141 (10.0)</t>
-  </si>
-  <si>
-    <t>77,538 (84.5)</t>
-  </si>
-  <si>
-    <t>10,768 (11.7)</t>
-  </si>
-  <si>
-    <t>3,469 (3.8)</t>
-  </si>
-  <si>
-    <t>15,973 (17.4)</t>
-  </si>
-  <si>
-    <t>16,000 (17.4)</t>
-  </si>
-  <si>
-    <t>16,192 (17.6)</t>
-  </si>
-  <si>
-    <t>19,479 (21.2)</t>
-  </si>
-  <si>
-    <t>24,131 (26.3)</t>
-  </si>
-  <si>
-    <t>24,042 (26.2)</t>
-  </si>
-  <si>
-    <t>45,057 (49.1)</t>
-  </si>
-  <si>
-    <t>9,469 (10.3)</t>
-  </si>
-  <si>
-    <t>1,007 (1.1)</t>
-  </si>
-  <si>
-    <t>12,200 (13.3)</t>
-  </si>
-  <si>
-    <t>91,425 (99.6)</t>
-  </si>
-  <si>
-    <t>350 (0.4)</t>
-  </si>
-  <si>
-    <t>9,731 (10.6)</t>
-  </si>
-  <si>
-    <t>18,708 (20.4)</t>
-  </si>
-  <si>
-    <t>4,503 (4.9)</t>
-  </si>
-  <si>
-    <t>5,791 (6.3)</t>
-  </si>
-  <si>
-    <t>14,743 (16.1)</t>
-  </si>
-  <si>
-    <t>2,620 (2.9)</t>
-  </si>
-  <si>
-    <t>4,893 (5.3)</t>
-  </si>
-  <si>
-    <t>7,601 (8.3)</t>
-  </si>
-  <si>
-    <t>23,140 (25.2)</t>
-  </si>
-  <si>
-    <t>28,106 (30.6)</t>
-  </si>
-  <si>
-    <t>6,811 (7.4)</t>
-  </si>
-  <si>
-    <t>43,239 (47.1)</t>
-  </si>
-  <si>
-    <t>8,526 (9.3)</t>
-  </si>
-  <si>
-    <t>4,119 (4.5)</t>
-  </si>
-  <si>
-    <t>974 (1.1)</t>
+    <t>92,081 (100.0)</t>
+  </si>
+  <si>
+    <t>89,892 (97.6)</t>
+  </si>
+  <si>
+    <t>2,189 (2.4)</t>
+  </si>
+  <si>
+    <t>91,810 (99.7)</t>
+  </si>
+  <si>
+    <t>271 (0.3)</t>
+  </si>
+  <si>
+    <t>12.9 (12.3)</t>
+  </si>
+  <si>
+    <t>9.0 (5.0-16.0)</t>
+  </si>
+  <si>
+    <t>91,596 (99.5)</t>
+  </si>
+  <si>
+    <t>485 (0.5)</t>
+  </si>
+  <si>
+    <t>1,889 (2.1)</t>
+  </si>
+  <si>
+    <t>300 (0.3)</t>
+  </si>
+  <si>
+    <t>20.1 (18.8)</t>
+  </si>
+  <si>
+    <t>13.0 (8.0-26.0)</t>
+  </si>
+  <si>
+    <t>102.2 (39.6)</t>
+  </si>
+  <si>
+    <t>109.0 (71.0-136.0)</t>
+  </si>
+  <si>
+    <t>20,926 (22.7)</t>
+  </si>
+  <si>
+    <t>13,459 (14.6)</t>
+  </si>
+  <si>
+    <t>11,607 (12.6)</t>
+  </si>
+  <si>
+    <t>11,742 (12.8)</t>
+  </si>
+  <si>
+    <t>9,078 (9.9)</t>
+  </si>
+  <si>
+    <t>8,279 (9.0)</t>
+  </si>
+  <si>
+    <t>9,518 (10.3)</t>
+  </si>
+  <si>
+    <t>7,472 (8.1)</t>
+  </si>
+  <si>
+    <t>49,629 (53.9)</t>
+  </si>
+  <si>
+    <t>42,452 (46.1)</t>
+  </si>
+  <si>
+    <t>38.6 (18.5)</t>
+  </si>
+  <si>
+    <t>14,334 (15.6)</t>
+  </si>
+  <si>
+    <t>17,353 (18.8)</t>
+  </si>
+  <si>
+    <t>16,821 (18.3)</t>
+  </si>
+  <si>
+    <t>15,951 (17.3)</t>
+  </si>
+  <si>
+    <t>15,344 (16.7)</t>
+  </si>
+  <si>
+    <t>7,618 (8.3)</t>
+  </si>
+  <si>
+    <t>3,139 (3.4)</t>
+  </si>
+  <si>
+    <t>1,521 (1.7)</t>
+  </si>
+  <si>
+    <t>53,145 (57.7)</t>
+  </si>
+  <si>
+    <t>11,950 (13.0)</t>
+  </si>
+  <si>
+    <t>1,760 (1.9)</t>
+  </si>
+  <si>
+    <t>1,192 (1.3)</t>
+  </si>
+  <si>
+    <t>1,362 (1.5)</t>
+  </si>
+  <si>
+    <t>22,672 (24.6)</t>
+  </si>
+  <si>
+    <t>70,816 (76.9)</t>
+  </si>
+  <si>
+    <t>12,709 (13.8)</t>
+  </si>
+  <si>
+    <t>5,470 (5.9)</t>
+  </si>
+  <si>
+    <t>3,086 (3.4)</t>
+  </si>
+  <si>
+    <t>57,917 (62.9)</t>
+  </si>
+  <si>
+    <t>25,014 (27.2)</t>
+  </si>
+  <si>
+    <t>9,150 (9.9)</t>
+  </si>
+  <si>
+    <t>77,886 (84.6)</t>
+  </si>
+  <si>
+    <t>10,679 (11.6)</t>
+  </si>
+  <si>
+    <t>3,516 (3.8)</t>
+  </si>
+  <si>
+    <t>16,013 (17.4)</t>
+  </si>
+  <si>
+    <t>16,329 (17.7)</t>
+  </si>
+  <si>
+    <t>16,006 (17.4)</t>
+  </si>
+  <si>
+    <t>19,536 (21.2)</t>
+  </si>
+  <si>
+    <t>24,197 (26.3)</t>
+  </si>
+  <si>
+    <t>24,096 (26.2)</t>
+  </si>
+  <si>
+    <t>45,170 (49.1)</t>
+  </si>
+  <si>
+    <t>9,503 (10.3)</t>
+  </si>
+  <si>
+    <t>1,008 (1.1)</t>
+  </si>
+  <si>
+    <t>12,304 (13.4)</t>
+  </si>
+  <si>
+    <t>91,726 (99.6)</t>
+  </si>
+  <si>
+    <t>355 (0.4)</t>
+  </si>
+  <si>
+    <t>9,712 (10.5)</t>
+  </si>
+  <si>
+    <t>18,736 (20.3)</t>
+  </si>
+  <si>
+    <t>4,501 (4.9)</t>
+  </si>
+  <si>
+    <t>5,850 (6.4)</t>
+  </si>
+  <si>
+    <t>14,725 (16.0)</t>
+  </si>
+  <si>
+    <t>2,656 (2.9)</t>
+  </si>
+  <si>
+    <t>4,897 (5.3)</t>
+  </si>
+  <si>
+    <t>7,668 (8.3)</t>
+  </si>
+  <si>
+    <t>23,290 (25.3)</t>
+  </si>
+  <si>
+    <t>28,089 (30.5)</t>
+  </si>
+  <si>
+    <t>6,827 (7.4)</t>
+  </si>
+  <si>
+    <t>43,483 (47.2)</t>
+  </si>
+  <si>
+    <t>8,540 (9.3)</t>
+  </si>
+  <si>
+    <t>4,172 (4.5)</t>
+  </si>
+  <si>
+    <t>970 (1.1)</t>
   </si>
   <si>
     <t>VOC</t>
   </si>
   <si>
-    <t>93,011 (100.0)</t>
-  </si>
-  <si>
-    <t>92,592 (99.5)</t>
-  </si>
-  <si>
-    <t>419 (0.5)</t>
-  </si>
-  <si>
-    <t>15.6 (8.3)</t>
-  </si>
-  <si>
-    <t>14.0 (9.0-21.0)</t>
-  </si>
-  <si>
-    <t>38.5 (11.8)</t>
-  </si>
-  <si>
-    <t>36.0 (30.0-45.0)</t>
-  </si>
-  <si>
-    <t>1,122 (1.2)</t>
-  </si>
-  <si>
-    <t>1,323 (1.4)</t>
-  </si>
-  <si>
-    <t>2,710 (2.9)</t>
-  </si>
-  <si>
-    <t>6,434 (6.9)</t>
-  </si>
-  <si>
-    <t>10,920 (11.7)</t>
-  </si>
-  <si>
-    <t>16,176 (17.4)</t>
-  </si>
-  <si>
-    <t>25,050 (26.9)</t>
-  </si>
-  <si>
-    <t>29,276 (31.5)</t>
-  </si>
-  <si>
-    <t>48,631 (52.3)</t>
-  </si>
-  <si>
-    <t>44,380 (47.7)</t>
+    <t>93,153 (100.0)</t>
+  </si>
+  <si>
+    <t>90,432 (97.1)</t>
+  </si>
+  <si>
+    <t>2,721 (2.9)</t>
+  </si>
+  <si>
+    <t>92,808 (99.6)</t>
+  </si>
+  <si>
+    <t>345 (0.4)</t>
+  </si>
+  <si>
+    <t>11.3 (9.7)</t>
+  </si>
+  <si>
+    <t>8.0 (5.0-14.0)</t>
+  </si>
+  <si>
+    <t>92,653 (99.5)</t>
+  </si>
+  <si>
+    <t>500 (0.5)</t>
+  </si>
+  <si>
+    <t>2,352 (2.5)</t>
+  </si>
+  <si>
+    <t>369 (0.4)</t>
+  </si>
+  <si>
+    <t>19.8 (15.1)</t>
+  </si>
+  <si>
+    <t>16.0 (10.0-25.0)</t>
+  </si>
+  <si>
+    <t>88.8 (33.8)</t>
+  </si>
+  <si>
+    <t>102.0 (62.0-113.0)</t>
+  </si>
+  <si>
+    <t>1,136 (1.2)</t>
+  </si>
+  <si>
+    <t>1,329 (1.4)</t>
+  </si>
+  <si>
+    <t>2,719 (2.9)</t>
+  </si>
+  <si>
+    <t>6,452 (6.9)</t>
+  </si>
+  <si>
+    <t>10,932 (11.7)</t>
+  </si>
+  <si>
+    <t>16,165 (17.4)</t>
+  </si>
+  <si>
+    <t>25,071 (26.9)</t>
+  </si>
+  <si>
+    <t>29,349 (31.5)</t>
+  </si>
+  <si>
+    <t>48,679 (52.3)</t>
+  </si>
+  <si>
+    <t>44,474 (47.7)</t>
   </si>
   <si>
     <t>37.9 (17.7)</t>
@@ -738,154 +831,157 @@
     <t>37.0 (24.0-51.0)</t>
   </si>
   <si>
-    <t>19,667 (21.1)</t>
+    <t>12,942 (13.9)</t>
+  </si>
+  <si>
+    <t>19,706 (21.2)</t>
   </si>
   <si>
     <t>17,516 (18.8)</t>
   </si>
   <si>
-    <t>16,879 (18.1)</t>
-  </si>
-  <si>
-    <t>15,223 (16.4)</t>
-  </si>
-  <si>
-    <t>7,231 (7.8)</t>
-  </si>
-  <si>
-    <t>2,744 (3.0)</t>
-  </si>
-  <si>
-    <t>833 (0.9)</t>
-  </si>
-  <si>
-    <t>52,741 (56.7)</t>
-  </si>
-  <si>
-    <t>9,682 (10.4)</t>
-  </si>
-  <si>
-    <t>2,777 (3.0)</t>
-  </si>
-  <si>
-    <t>1,453 (1.6)</t>
-  </si>
-  <si>
-    <t>1,623 (1.7)</t>
-  </si>
-  <si>
-    <t>24,735 (26.6)</t>
-  </si>
-  <si>
-    <t>73,662 (79.2)</t>
-  </si>
-  <si>
-    <t>11,872 (12.8)</t>
-  </si>
-  <si>
-    <t>4,940 (5.3)</t>
-  </si>
-  <si>
-    <t>2,537 (2.7)</t>
-  </si>
-  <si>
-    <t>57,731 (62.1)</t>
-  </si>
-  <si>
-    <t>25,067 (27.0)</t>
-  </si>
-  <si>
-    <t>10,213 (11.0)</t>
-  </si>
-  <si>
-    <t>80,479 (86.5)</t>
-  </si>
-  <si>
-    <t>9,838 (10.6)</t>
-  </si>
-  <si>
-    <t>2,694 (2.9)</t>
-  </si>
-  <si>
-    <t>20,587 (22.1)</t>
-  </si>
-  <si>
-    <t>18,767 (20.2)</t>
-  </si>
-  <si>
-    <t>18,989 (20.4)</t>
-  </si>
-  <si>
-    <t>19,124 (20.6)</t>
-  </si>
-  <si>
-    <t>15,544 (16.7)</t>
-  </si>
-  <si>
-    <t>23,531 (25.3)</t>
-  </si>
-  <si>
-    <t>47,644 (51.2)</t>
-  </si>
-  <si>
-    <t>9,220 (9.9)</t>
+    <t>16,903 (18.1)</t>
+  </si>
+  <si>
+    <t>15,257 (16.4)</t>
+  </si>
+  <si>
+    <t>7,251 (7.8)</t>
+  </si>
+  <si>
+    <t>2,743 (2.9)</t>
+  </si>
+  <si>
+    <t>835 (0.9)</t>
+  </si>
+  <si>
+    <t>53,112 (57.0)</t>
+  </si>
+  <si>
+    <t>9,742 (10.5)</t>
+  </si>
+  <si>
+    <t>2,796 (3.0)</t>
+  </si>
+  <si>
+    <t>1,462 (1.6)</t>
+  </si>
+  <si>
+    <t>1,641 (1.8)</t>
+  </si>
+  <si>
+    <t>24,400 (26.2)</t>
+  </si>
+  <si>
+    <t>73,783 (79.2)</t>
+  </si>
+  <si>
+    <t>11,888 (12.8)</t>
+  </si>
+  <si>
+    <t>4,946 (5.3)</t>
+  </si>
+  <si>
+    <t>2,536 (2.7)</t>
+  </si>
+  <si>
+    <t>57,813 (62.1)</t>
+  </si>
+  <si>
+    <t>25,121 (27.0)</t>
+  </si>
+  <si>
+    <t>10,219 (11.0)</t>
+  </si>
+  <si>
+    <t>80,727 (86.7)</t>
+  </si>
+  <si>
+    <t>9,731 (10.4)</t>
+  </si>
+  <si>
+    <t>2,695 (2.9)</t>
+  </si>
+  <si>
+    <t>20,608 (22.1)</t>
+  </si>
+  <si>
+    <t>19,132 (20.5)</t>
+  </si>
+  <si>
+    <t>18,692 (20.1)</t>
+  </si>
+  <si>
+    <t>19,149 (20.6)</t>
+  </si>
+  <si>
+    <t>15,572 (16.7)</t>
+  </si>
+  <si>
+    <t>23,562 (25.3)</t>
+  </si>
+  <si>
+    <t>47,716 (51.2)</t>
+  </si>
+  <si>
+    <t>9,225 (9.9)</t>
   </si>
   <si>
     <t>935 (1.0)</t>
   </si>
   <si>
-    <t>11,681 (12.6)</t>
-  </si>
-  <si>
-    <t>92,887 (99.9)</t>
-  </si>
-  <si>
-    <t>124 (0.1)</t>
-  </si>
-  <si>
-    <t>35,026 (37.7)</t>
-  </si>
-  <si>
-    <t>7,822 (8.4)</t>
-  </si>
-  <si>
-    <t>11,495 (12.4)</t>
-  </si>
-  <si>
-    <t>1,224 (1.3)</t>
-  </si>
-  <si>
-    <t>10,300 (11.1)</t>
-  </si>
-  <si>
-    <t>6,812 (7.3)</t>
-  </si>
-  <si>
-    <t>4,165 (4.5)</t>
-  </si>
-  <si>
-    <t>7,595 (8.2)</t>
-  </si>
-  <si>
-    <t>8,560 (9.2)</t>
-  </si>
-  <si>
-    <t>29,766 (32.0)</t>
-  </si>
-  <si>
-    <t>2,084 (2.2)</t>
-  </si>
-  <si>
-    <t>47,641 (51.2)</t>
-  </si>
-  <si>
-    <t>7,849 (8.4)</t>
-  </si>
-  <si>
-    <t>4,983 (5.4)</t>
-  </si>
-  <si>
-    <t>688 (0.7)</t>
+    <t>11,715 (12.6)</t>
+  </si>
+  <si>
+    <t>93,030 (99.9)</t>
+  </si>
+  <si>
+    <t>123 (0.1)</t>
+  </si>
+  <si>
+    <t>34,946 (37.5)</t>
+  </si>
+  <si>
+    <t>7,843 (8.4)</t>
+  </si>
+  <si>
+    <t>11,485 (12.3)</t>
+  </si>
+  <si>
+    <t>1,241 (1.3)</t>
+  </si>
+  <si>
+    <t>10,293 (11.0)</t>
+  </si>
+  <si>
+    <t>6,909 (7.4)</t>
+  </si>
+  <si>
+    <t>4,175 (4.5)</t>
+  </si>
+  <si>
+    <t>7,612 (8.2)</t>
+  </si>
+  <si>
+    <t>8,633 (9.3)</t>
+  </si>
+  <si>
+    <t>29,738 (31.9)</t>
+  </si>
+  <si>
+    <t>2,093 (2.2)</t>
+  </si>
+  <si>
+    <t>47,718 (51.2)</t>
+  </si>
+  <si>
+    <t>7,877 (8.5)</t>
+  </si>
+  <si>
+    <t>5,041 (5.4)</t>
+  </si>
+  <si>
+    <t>686 (0.7)</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1027,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E101"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -954,13 +1050,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -984,13 +1080,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1014,13 +1110,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1029,13 +1125,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1056,37 +1152,37 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1101,31 +1197,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1146,127 +1242,127 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1281,37 +1377,37 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -1326,457 +1422,457 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -1791,367 +1887,367 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D60" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
+        <v>290</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D81" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -2166,93 +2262,288 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D87" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="E88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" t="s">
+        <v>311</v>
+      </c>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" t="s">
+        <v>312</v>
+      </c>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" t="s">
+        <v>313</v>
+      </c>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" t="s">
+        <v>314</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" t="s">
+        <v>315</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" t="s">
+        <v>316</v>
+      </c>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>317</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" t="s">
+        <v>318</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" t="s">
+        <v>319</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" t="s">
+        <v>241</v>
+      </c>
+      <c r="D99" t="s">
+        <v>320</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>164</v>
+      </c>
+      <c r="C100" t="s">
+        <v>242</v>
+      </c>
+      <c r="D100" t="s">
+        <v>321</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C101" t="s">
+        <v>243</v>
+      </c>
+      <c r="D101" t="s">
+        <v>322</v>
+      </c>
+      <c r="E101" s="1"/>
     </row>
   </sheetData>
 </worksheet>
